--- a/src/test/resources/levels/final result.xlsx
+++ b/src/test/resources/levels/final result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Samira\Ph.D\iv4xrDemo2\src\test\resources\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37243B4-2A6C-4550-BD0D-4F07CD198379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDDFA13-8318-48F1-94A3-263284EED772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AAB508FD-C49A-4EBF-9FAE-EEABB637EAAD}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="71">
   <si>
     <t>previous result</t>
   </si>
@@ -233,6 +232,53 @@
 GameLevel3_2020_11_17_10.21.18  /10/10f
 success
 GameLevel3_2020_11_17_10.21.47  / 6f/4s</t>
+  </si>
+  <si>
+    <t>without incloserange
+2
+GameLevel3_2020_11_17_10.21.18
+GameLevel3_2020_11_17_10.21.22</t>
+  </si>
+  <si>
+    <t>without incloserange
+3
+GameLevel3_2020_11_17_10.21.18
+GameLevel3_2020_11_17_10.21.22
+GameLevel3_2020_11_17_10.21.15</t>
+  </si>
+  <si>
+    <t>6
+GameLevel3_2020_11_17_10.20.58 / 10/10f
+GameLevel3_2020_11_17_10.20.59 / 10/10f
+GameLevel3_2020_11_17_10.21.09  /10/10f
+GameLevel3_2020_11_17_10.21.12  /10/10f
+GameLevel3_2020_11_17_10.21.18  /10/10f
+GameLevel3_2020_11_17_10.21.47  /10/2f/8s
+success
+GameLevel3_2020_11_17_10.21.14 2f/8s</t>
+  </si>
+  <si>
+    <t>level3 - mutation of  location - smart test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without incloserange
+9
+GameLevel3_2020_11_17_10.20.58 
+GameLevel3_2020_11_17_10.20.59 
+GameLevel3_2020_11_17_10.21.09 
+GameLevel3_2020_11_17_10.21.18 </t>
+  </si>
+  <si>
+    <t>Without incoserange
+5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3
+GameLevel1_2020_11_05_16.57.01 10f
+GameLevel1_2020_11_05_17.05.42 10s
+GameLevel1_2020_11_05_17.06.58  3s 7f
+success 10/10
+</t>
   </si>
 </sst>
 </file>
@@ -272,13 +318,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E7035E-EBB6-4070-9982-F74BB975A5C2}">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,22 +651,21 @@
     <col min="1" max="1" width="49.6328125" customWidth="1"/>
     <col min="2" max="2" width="16.90625" customWidth="1"/>
     <col min="3" max="3" width="38.36328125" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" customWidth="1"/>
+    <col min="8" max="8" width="33.7265625" customWidth="1"/>
+    <col min="9" max="9" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -630,9 +675,9 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -643,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -654,7 +699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -665,7 +710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -676,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -687,18 +732,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -709,7 +752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -720,7 +763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -731,7 +774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -742,7 +785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -753,7 +796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -764,35 +807,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="H22">
+      <c r="D22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -802,14 +845,14 @@
       <c r="C23">
         <v>1</v>
       </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
       <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="H23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -819,14 +862,14 @@
       <c r="C24">
         <v>2</v>
       </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
       <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="H24">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -836,14 +879,14 @@
       <c r="C26">
         <v>1</v>
       </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -853,14 +896,14 @@
       <c r="C27">
         <v>2</v>
       </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
       <c r="F27">
         <v>3</v>
       </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -870,109 +913,109 @@
       <c r="C28">
         <v>3</v>
       </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
       <c r="F28">
         <v>4</v>
       </c>
-      <c r="H28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+    </row>
+    <row r="30" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
         <v>6</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3">
+      <c r="D30" s="2">
         <v>6</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2">
         <v>6</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" ht="166" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="166" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3">
+      <c r="D31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2">
         <v>6</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3">
-        <v>6</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="G31" s="2"/>
+      <c r="H31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2">
         <v>5</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3">
+      <c r="D32" s="2">
         <v>5</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2">
         <v>5</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+      <c r="G32" s="2"/>
+      <c r="H32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>18</v>
       </c>
@@ -980,7 +1023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -991,7 +1034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -1002,7 +1045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -1013,7 +1056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -1024,7 +1067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1035,7 +1078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -1389,10 +1432,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A40:G40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
